--- a/Devis.xlsx
+++ b/Devis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{750B6545-743F-4B70-B245-E7104C6EA963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D4442C-8B49-47CA-884C-B92C84922485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Adresse de la société</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Article 1</t>
-  </si>
-  <si>
     <t>Prix unitaire</t>
   </si>
   <si>
@@ -125,6 +122,15 @@
   </si>
   <si>
     <t xml:space="preserve">Imposable </t>
+  </si>
+  <si>
+    <t>Salle des fêtes (deux jours)</t>
+  </si>
+  <si>
+    <t>Sono</t>
+  </si>
+  <si>
+    <t>Agents de sécurité</t>
   </si>
 </sst>
 </file>
@@ -1457,8 +1463,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="8">
         <f ca="1">TODAY()</f>
@@ -1491,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7">
         <v>1234</v>
@@ -1502,10 +1508,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1519,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="8">
         <f ca="1">F2+30</f>
@@ -1531,10 +1537,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,49 +1587,61 @@
         <v>14</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:6" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="28">
         <v>2</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
+      <c r="C16" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="23">
-        <v>12.34</v>
+        <v>460</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="24">
         <f>IFERROR(IF(OR(Tableau_Articles[[#This Row],[Quantité]]="",Tableau_Articles[[#This Row],[Prix unitaire]]=""),"",Tableau_Articles[[#This Row],[Quantité]]*Tableau_Articles[[#This Row],[Prix unitaire]]),"")</f>
-        <v>24.68</v>
+        <v>920</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="28">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="23">
+        <v>120</v>
+      </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="24" t="str">
+      <c r="F17" s="24">
         <f>IFERROR(IF(OR(Tableau_Articles[[#This Row],[Quantité]]="",Tableau_Articles[[#This Row],[Prix unitaire]]=""),"",Tableau_Articles[[#This Row],[Quantité]]*Tableau_Articles[[#This Row],[Prix unitaire]]),"")</f>
-        <v/>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="28">
+        <v>4</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="23">
+        <v>224</v>
+      </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="24" t="str">
+      <c r="F18" s="24">
         <f>IFERROR(IF(OR(Tableau_Articles[[#This Row],[Quantité]]="",Tableau_Articles[[#This Row],[Prix unitaire]]=""),"",Tableau_Articles[[#This Row],[Quantité]]*Tableau_Articles[[#This Row],[Prix unitaire]]),"")</f>
-        <v/>
+        <v>896</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1648,11 +1666,11 @@
     </row>
     <row r="22" spans="2:6" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="25">
         <f>SUM(Tableau_Articles[Montant])</f>
-        <v>24.68</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,7 +1678,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="11">
         <v>8.5999999999999993E-2</v>
@@ -1671,7 +1689,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="26">
         <f>IFERROR(_xlfn.SINGLE(Taux_TVA)*SUMIF(Tableau_Articles[[Imposable ]],"Oui",Tableau_Articles[Montant]), "")</f>
@@ -1680,7 +1698,7 @@
     </row>
     <row r="25" spans="2:6" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="26"/>
     </row>
@@ -1689,11 +1707,11 @@
         <v>13</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="27">
         <f>SUM(F22,F24,F25)</f>
-        <v>24.68</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="27" spans="2:6" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1752,24 +1770,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cf6cf056b5324d160236e2ac13572175">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="308e4927137fd5e63b6be1bd7725299e" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1989,10 +1989,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE21DFDB-9131-4336-BB9A-5B7FFEA41F63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B971255C-6284-478A-B532-189CCBCEB2CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2016,21 +2046,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B971255C-6284-478A-B532-189CCBCEB2CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE21DFDB-9131-4336-BB9A-5B7FFEA41F63}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Devis.xlsx
+++ b/Devis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D4442C-8B49-47CA-884C-B92C84922485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1259E-5DEC-4C74-A115-FC0A85CA4AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,6 @@
     <t>Adresse de la société</t>
   </si>
   <si>
-    <t>Adresse, code postal, ville</t>
-  </si>
-  <si>
-    <t>Téléphone : Entrez votre numéro de téléphone ici   Télécopie : Entrez le numéro de télécopie ici</t>
-  </si>
-  <si>
     <t>Citation pour</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>ABC123</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>Agents de sécurité</t>
+  </si>
+  <si>
+    <t>EFD854</t>
+  </si>
+  <si>
+    <t>71 Rue Peter Fink, 01000 Bourg-en-Bresse</t>
+  </si>
+  <si>
+    <t>Téléphone :0123456789  Télécopie : 123456789</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -817,6 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1463,8 +1466,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="8">
         <f ca="1">TODAY()</f>
@@ -1493,39 +1496,39 @@
       </c>
     </row>
     <row r="3" spans="2:6" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1234</v>
-      </c>
     </row>
     <row r="4" spans="2:6" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
+      <c r="B4" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="8">
         <f ca="1">F2+30</f>
@@ -1534,34 +1537,34 @@
     </row>
     <row r="7" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -1581,19 +1584,19 @@
     </row>
     <row r="15" spans="2:6" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:6" s="5" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1601,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="23">
         <v>460</v>
@@ -1617,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="23">
         <v>120</v>
@@ -1633,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="23">
         <v>224</v>
@@ -1666,7 +1669,7 @@
     </row>
     <row r="22" spans="2:6" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="25">
         <f>SUM(Tableau_Articles[Montant])</f>
@@ -1675,10 +1678,10 @@
     </row>
     <row r="23" spans="2:6" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23" s="11">
         <v>8.5999999999999993E-2</v>
@@ -1686,10 +1689,10 @@
     </row>
     <row r="24" spans="2:6" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="26">
         <f>IFERROR(_xlfn.SINGLE(Taux_TVA)*SUMIF(Tableau_Articles[[Imposable ]],"Oui",Tableau_Articles[Montant]), "")</f>
@@ -1698,16 +1701,16 @@
     </row>
     <row r="25" spans="2:6" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="2:6" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" s="27">
         <f>SUM(F22,F24,F25)</f>
@@ -1770,6 +1773,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cf6cf056b5324d160236e2ac13572175">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="308e4927137fd5e63b6be1bd7725299e" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1989,40 +2010,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B971255C-6284-478A-B532-189CCBCEB2CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE21DFDB-9131-4336-BB9A-5B7FFEA41F63}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2046,9 +2037,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE21DFDB-9131-4336-BB9A-5B7FFEA41F63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B971255C-6284-478A-B532-189CCBCEB2CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>